--- a/May 2018/Weekend-Weekday/Validation/Valid_May2018(2Periods).xlsx
+++ b/May 2018/Weekend-Weekday/Validation/Valid_May2018(2Periods).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\May 2018\Weekend-Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{398FB8C2-6C89-45E9-9D34-E7770C2FC000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8E59BE-2EE1-40C4-A014-77DC43CD2434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{01531084-785D-4D1D-9FC8-DE54E94EB556}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{A31832F6-0DD8-4FC5-8B68-159DA60315F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -370,7 +370,7 @@
     <t>initstorage</t>
   </si>
   <si>
-    <t>Initial reservoir storage on 1st March 2018 (acre-ft)</t>
+    <t>Initial reservoir storage on 1st May 2018 (acre-ft)</t>
   </si>
   <si>
     <t>maxRel</t>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F371A21-4DDF-4D01-8219-96BB254B11AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E6213-4B4F-4DA4-B184-42B553A91B5D}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1838,65 +1838,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{06ED2889-F127-4605-B191-AF342ECBAC62}"/>
-    <hyperlink ref="A3" location="Scalar!A1" display="Convert" xr:uid="{804858F1-E0B9-4521-BA63-E8A611918F89}"/>
-    <hyperlink ref="A4" location="d!A1" display="d" xr:uid="{C71C1A84-7081-4E4B-BDA7-261A4B6910C1}"/>
-    <hyperlink ref="A5" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{D2FD4BF0-4421-489F-8A45-01BC1F0DC53C}"/>
-    <hyperlink ref="A6" location="Duration!A1" display="Duration" xr:uid="{260E664E-F565-4418-B838-C14BB609F8D9}"/>
-    <hyperlink ref="A7" location="EnergyRate!A1" display="EnergyRate" xr:uid="{127C9822-27D6-49A9-A6E1-67B2E39CF7B4}"/>
-    <hyperlink ref="A8" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{696E63CD-7160-416E-8A1D-A94CDA2BAF1B}"/>
-    <hyperlink ref="A9" location="EQ10_EnergyGen_Max!A1" display="EQ10_EnergyGen_Max" xr:uid="{DC335AB1-68FC-4222-9BA0-58FB13844319}"/>
-    <hyperlink ref="A10" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{545282C1-4BFD-475F-B2EF-AD19B259BB15}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ12_Revenue" xr:uid="{13419851-A112-47D2-AAC3-70CCC721FFB4}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{C9925C38-99D6-4E2C-A4D3-FE95260D1E0E}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{E8CE410D-21AE-4202-A6E1-75D029C8F09E}"/>
-    <hyperlink ref="A14" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{82CDA6D7-025A-423B-A3D3-7D8DF9A55E46}"/>
-    <hyperlink ref="A15" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{4DA069A4-6108-4847-ADD1-937E9B97863C}"/>
-    <hyperlink ref="A16" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{BEE0FF06-A7AD-4903-BAF2-E4207BA96BC1}"/>
-    <hyperlink ref="A17" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{73A4F7A3-2408-4EE5-9EC6-0284FD8F6E80}"/>
-    <hyperlink ref="A18" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{E256F652-8D9F-47DB-A4C1-EE1EB1BFBBBB}"/>
-    <hyperlink ref="A19" location="EQ8_SteadyEnergy!A1" display="EQ8_SteadyEnergy" xr:uid="{80FCD3C0-3D4F-4DEA-A817-0A450C740350}"/>
-    <hyperlink ref="A20" location="EQ9_EnergyGen!A1" display="EQ9_EnergyGen" xr:uid="{3F56B88F-DAF6-4A88-9511-D908181F77A8}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="EQa_Inflow" xr:uid="{F8ED2DA5-16BC-4D77-B338-6EE4FEA92EFD}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{67927C21-F44E-4DB4-92E5-C6416BB374EB}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{A0CDE586-0458-4262-B2A8-1003927A707D}"/>
-    <hyperlink ref="A24" location="evap!A1" display="evap" xr:uid="{3071E86A-B9C9-4480-B9A4-24FE2C6E1587}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="FStore" xr:uid="{13276B8D-19FD-44DC-93A7-10C53DAFCED2}"/>
-    <hyperlink ref="A26" location="Inflow!A1" display="Inflow" xr:uid="{35B52A8E-8341-4533-B73F-C49CCC7B9BFF}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="initstorage" xr:uid="{743A8789-CF2D-4C8B-BEEF-D92581392796}"/>
-    <hyperlink ref="A28" location="Scalar!A1" display="maxRel" xr:uid="{82D2FB37-399C-44A3-96C2-DF5A86AB018D}"/>
-    <hyperlink ref="A29" location="Scalar!A1" display="maxstorage" xr:uid="{C56389C8-DAAA-46C0-8D37-B658E986CF67}"/>
-    <hyperlink ref="A30" location="Scalar!A1" display="minRel" xr:uid="{C6AFB044-6B48-44DB-9D6E-7A4B6A72CB0D}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="minstorage" xr:uid="{D13E0BCF-714E-4B5C-8AE1-ACC2D4BC72C7}"/>
-    <hyperlink ref="A32" location="ModelResults!A1" display="ModelResults" xr:uid="{70114AC6-1329-4AC6-826C-8AAA8D1CB849}"/>
-    <hyperlink ref="A33" location="modpar!A1" display="modpar" xr:uid="{CA00F6F8-93D4-4629-999E-417410CD9780}"/>
-    <hyperlink ref="A34" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{5D153F6C-179B-4D82-AFE2-D036261AC9EB}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="ObjectiveVal" xr:uid="{7BA3BDEB-D8C6-43DA-9B22-6182A61FD62A}"/>
-    <hyperlink ref="A36" location="p!A1" display="p" xr:uid="{890B5DB5-A875-4726-9476-367451C924F7}"/>
-    <hyperlink ref="A37" location="release!A1" display="release" xr:uid="{922D769E-3A07-4A94-A53E-3BA018B42848}"/>
-    <hyperlink ref="A38" location="RStore_steady!A1" display="RStore_steady" xr:uid="{26714F5B-8DF0-41C4-AF37-AFED71C7A77E}"/>
-    <hyperlink ref="A39" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{A1B61231-00C1-4A15-B1C4-2E561C1C747D}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sstore" xr:uid="{9B0FEFF1-0318-44C5-8B66-0D67011A851C}"/>
-    <hyperlink ref="A41" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{21656916-4B19-4C37-B7A9-EB83D091B691}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Steady_Days" xr:uid="{120EC97B-57D7-4E00-B6B7-781E15024D82}"/>
-    <hyperlink ref="A43" location="Scalar!A1" display="steady_Outflow" xr:uid="{A453F4DA-29AA-46AD-9095-00B30F5A2E55}"/>
-    <hyperlink ref="A44" location="Scalar!A1" display="Steady_Release" xr:uid="{2CB66C9D-40E7-42CC-ABD4-7421842ABEAE}"/>
-    <hyperlink ref="A45" location="Scalar!A1" display="storage" xr:uid="{61DAD30B-85F3-4385-9BD3-19A29F5ED035}"/>
-    <hyperlink ref="A46" location="Scalar!A1" display="Totaldays" xr:uid="{734DF500-B3EE-4F11-B4E6-68EA22D5BCE3}"/>
-    <hyperlink ref="A47" location="Scalar!A1" display="TotMonth_volume" xr:uid="{2077E2B2-CF20-44F9-8F15-640C6BFBE4C3}"/>
-    <hyperlink ref="A48" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{9F6E2975-71C4-4911-8B27-96114BF6B162}"/>
-    <hyperlink ref="A49" location="Scalar!A1" display="weekdays" xr:uid="{F8F0E8B8-4014-4910-A8DC-8C94AF94E253}"/>
-    <hyperlink ref="A50" location="weekendRate!A1" display="weekendRate" xr:uid="{C2D1F43A-1F2F-4C4E-ACE9-6CBA76C27E0C}"/>
-    <hyperlink ref="A51" location="Scalar!A1" display="weekends" xr:uid="{4457B9D6-8579-4141-92F1-C96700649F15}"/>
-    <hyperlink ref="A52" location="Scalar!A1" display="XStore_steady" xr:uid="{13D904EE-ABA8-4373-82A8-86E66A5D2B8B}"/>
-    <hyperlink ref="A53" location="Scalar!A1" display="XStore_unsteady" xr:uid="{DA7E4040-7761-436F-9D06-4F488A3855A6}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{1E7F462C-973A-4975-BBA9-BDC3473AD610}"/>
+    <hyperlink ref="A3" location="Scalar!A1" display="Convert" xr:uid="{C2756BDC-DDF1-4437-88FF-A69442E2B237}"/>
+    <hyperlink ref="A4" location="d!A1" display="d" xr:uid="{B59C7768-825C-4154-B763-F754BAFE0E3B}"/>
+    <hyperlink ref="A5" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{ED34B089-653A-45F1-8E9F-B3A4FFAFD28D}"/>
+    <hyperlink ref="A6" location="Duration!A1" display="Duration" xr:uid="{821C2A30-D7D6-42FE-BDD2-BF7CDFC4854E}"/>
+    <hyperlink ref="A7" location="EnergyRate!A1" display="EnergyRate" xr:uid="{46A6B97A-B81A-4321-A88E-2C7D0127F9AE}"/>
+    <hyperlink ref="A8" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{5E7CBC7C-1825-4913-B928-0187528A5605}"/>
+    <hyperlink ref="A9" location="EQ10_EnergyGen_Max!A1" display="EQ10_EnergyGen_Max" xr:uid="{3BDC55F3-216C-4DA5-8E73-E4EBBA3EC5EB}"/>
+    <hyperlink ref="A10" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{6160A8B6-CF88-45D4-8F21-44527E3015D5}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ12_Revenue" xr:uid="{635941C9-810A-4118-84EB-5A5F1F5D04F0}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{DC45C582-DD88-4414-BE04-87C1E5479179}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{7205DA01-A5A1-41D8-9F0E-A0AC6DB0FDE8}"/>
+    <hyperlink ref="A14" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{A70960C2-3BA9-4ABE-BDF7-FB791639E256}"/>
+    <hyperlink ref="A15" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{4610ED30-BD50-441C-B835-8A5119C14F9A}"/>
+    <hyperlink ref="A16" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{3B6D2F46-9D7B-43F7-8C6E-D6150EB44D2C}"/>
+    <hyperlink ref="A17" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{347E73FD-5AFA-41CC-ACBF-EEF292BB3372}"/>
+    <hyperlink ref="A18" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{A03FFD18-6AA1-406B-AF78-3FF2B692AE90}"/>
+    <hyperlink ref="A19" location="EQ8_SteadyEnergy!A1" display="EQ8_SteadyEnergy" xr:uid="{DA2514BD-6038-41D7-8BE9-0C994B8BE02D}"/>
+    <hyperlink ref="A20" location="EQ9_EnergyGen!A1" display="EQ9_EnergyGen" xr:uid="{DF7FD18E-2B83-429D-B050-4B492459E032}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="EQa_Inflow" xr:uid="{685850AE-D919-4620-A3DF-89D2F6F83BDA}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{386F96EF-0907-4BC8-A457-EB88A9B5F9AC}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{52B2EFB8-41B1-4DD6-8CAA-24201E5149BD}"/>
+    <hyperlink ref="A24" location="evap!A1" display="evap" xr:uid="{9830BA9B-E8DC-445C-A843-61769B6573D7}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="FStore" xr:uid="{878C769D-0E5D-4B13-A609-B874EFFE58EE}"/>
+    <hyperlink ref="A26" location="Inflow!A1" display="Inflow" xr:uid="{5D4CE23D-4B0F-4F51-AD62-BAB3E1F08C26}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="initstorage" xr:uid="{F30F50C4-3AD6-4942-BF70-EFF3015B3475}"/>
+    <hyperlink ref="A28" location="Scalar!A1" display="maxRel" xr:uid="{09722368-3787-4AEB-943D-3723789E5900}"/>
+    <hyperlink ref="A29" location="Scalar!A1" display="maxstorage" xr:uid="{AD7DCD73-D4FE-48D9-A52E-04A490339877}"/>
+    <hyperlink ref="A30" location="Scalar!A1" display="minRel" xr:uid="{686E1435-8068-4B76-B430-09AD123C5B4E}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="minstorage" xr:uid="{B239BE78-E81E-4AFF-99F7-6AEE9D2FD6B5}"/>
+    <hyperlink ref="A32" location="ModelResults!A1" display="ModelResults" xr:uid="{A673B3B5-AE10-4A14-95C3-6261CA965DD2}"/>
+    <hyperlink ref="A33" location="modpar!A1" display="modpar" xr:uid="{525EA105-04FE-45FD-92CF-55CE3152BE85}"/>
+    <hyperlink ref="A34" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{63E2023D-5C62-4157-9B4C-32D10FFF66D1}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="ObjectiveVal" xr:uid="{6A30D8A0-3A7A-4037-8954-91C558CE0FC5}"/>
+    <hyperlink ref="A36" location="p!A1" display="p" xr:uid="{CB878354-8C91-4909-8CBF-B9DBCE4429AD}"/>
+    <hyperlink ref="A37" location="release!A1" display="release" xr:uid="{7942D3DB-E7E6-4AEB-8F9F-3B1A211AFC5F}"/>
+    <hyperlink ref="A38" location="RStore_steady!A1" display="RStore_steady" xr:uid="{EF886E90-873A-4D41-B105-99C358A17D37}"/>
+    <hyperlink ref="A39" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{89AC5EB7-D02A-4478-8A7D-F17C7806840B}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sstore" xr:uid="{0E049DA5-D326-47B3-A934-AD22CCE4997E}"/>
+    <hyperlink ref="A41" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{0BB15996-0433-4A4E-9D9E-5C11DAC9AD67}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Steady_Days" xr:uid="{903242CA-76A5-41FA-89D4-E29BFDC0D670}"/>
+    <hyperlink ref="A43" location="Scalar!A1" display="steady_Outflow" xr:uid="{283F6FE3-2988-4CFB-B5D5-24A902942E67}"/>
+    <hyperlink ref="A44" location="Scalar!A1" display="Steady_Release" xr:uid="{A6CFCB88-1491-4CB5-BBB7-915705DDD672}"/>
+    <hyperlink ref="A45" location="Scalar!A1" display="storage" xr:uid="{C578D6AC-5D9A-4B7E-9A56-3128E1F86C04}"/>
+    <hyperlink ref="A46" location="Scalar!A1" display="Totaldays" xr:uid="{F59C5012-43FC-492F-B1A0-2A0113FE4B5F}"/>
+    <hyperlink ref="A47" location="Scalar!A1" display="TotMonth_volume" xr:uid="{0C9C5351-A284-4870-9500-684A73678045}"/>
+    <hyperlink ref="A48" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{077F900B-6B43-4CB0-830D-D2E8F04FC7F6}"/>
+    <hyperlink ref="A49" location="Scalar!A1" display="weekdays" xr:uid="{94B63663-73C8-4DEE-A744-ABE4246260D9}"/>
+    <hyperlink ref="A50" location="weekendRate!A1" display="weekendRate" xr:uid="{D2F142D3-6F41-4204-96BB-FC11249A81FB}"/>
+    <hyperlink ref="A51" location="Scalar!A1" display="weekends" xr:uid="{438047EB-6E49-409C-BA40-61294730D2E8}"/>
+    <hyperlink ref="A52" location="Scalar!A1" display="XStore_steady" xr:uid="{7C780621-47E1-467C-A93D-CE82D0199C87}"/>
+    <hyperlink ref="A53" location="Scalar!A1" display="XStore_unsteady" xr:uid="{1054CD31-ED19-47D0-885A-C7B3567E46A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50402C35-9A8D-4F02-993A-D2C35CCF2ADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD4A4C-5F4B-486C-B9E4-6C413A271B7D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1974,16 +1974,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{1B44A89A-EF0F-4057-BF8F-0141FA4EB593}"/>
+  <autoFilter ref="A3:E5" xr:uid="{7488A44C-D554-4740-AEEE-8C5B13A14972}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{69C42C4E-6655-4420-A81E-24E9DA151CC3}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9AEB4C46-080D-488B-85A0-EEE83265A0FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4C2681-E68F-445B-92F1-F72356C66A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A704FF-173E-405A-8E19-7C2BCFFA0AB0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2061,16 +2061,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{59C1F14B-86B5-471A-A3F1-17D6E32D0DBF}"/>
+  <autoFilter ref="A3:E5" xr:uid="{B36F0672-BB1C-4D19-80A3-E0D3756E3C8E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D2F9D5F7-A576-473C-87AD-AF5A1A9E651A}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4BB8C7BC-7378-489B-9F2B-E0C4794D930D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD698DE-DFB7-4F5F-B4AA-913410DA67F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724DD9E4-A68A-4AF6-BB45-2CDC11B5C8BA}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2148,16 +2148,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{7B49FD9C-3DAF-483F-AC4A-AC87233694AC}"/>
+  <autoFilter ref="A3:E5" xr:uid="{ED7C4C7E-81FD-450D-B6B6-08216796EC23}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{899D1ABE-45B7-4E4D-9611-03B6F3CDADBF}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{505B0A3C-C016-4B89-8319-72C41E6C515D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500B056D-63AD-42B2-B8CD-CF2B409E2837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE45AA9-C064-4113-AF67-320870AAEA7B}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2196,7 +2196,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>3609.29</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2204,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>3609.22</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2212,7 +2212,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>3609.24</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2220,7 +2220,7 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>3609.23</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2228,7 +2228,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>3609.3</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2236,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>3609.37</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2244,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>3609.39</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2252,7 +2252,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>3609.4</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2260,7 +2260,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>3609.35</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2268,7 +2268,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>3609.35</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2276,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>3609.3</v>
+        <v>931</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2284,7 +2284,7 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>3609.31</v>
+        <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2292,7 +2292,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>3609.4</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2300,7 +2300,7 @@
         <v>51</v>
       </c>
       <c r="B17">
-        <v>3609.49</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2308,7 +2308,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>3609.61</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2316,7 +2316,7 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>3609.71</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2324,7 +2324,7 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>3609.83</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2332,7 +2332,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>3609.98</v>
+        <v>935</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2340,7 +2340,7 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>3610.18</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2348,7 +2348,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>3610.35</v>
+        <v>938</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2356,7 +2356,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>3610.47</v>
+        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2364,7 +2364,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>3610.5</v>
+        <v>939</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2372,7 +2372,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>3610.61</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2380,7 +2380,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>3610.69</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2388,7 +2388,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>3610.73</v>
+        <v>940</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2396,7 +2396,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>3610.85</v>
+        <v>941</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2404,7 +2404,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>3611</v>
+        <v>942</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2412,7 +2412,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>3611.13</v>
+        <v>943</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2420,7 +2420,7 @@
         <v>66</v>
       </c>
       <c r="B32">
-        <v>3611.32</v>
+        <v>944</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2428,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>3611.44</v>
+        <v>945</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2436,20 +2436,20 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>3611.54</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{443DEFCA-2484-4C9F-B00F-3779938E9B83}"/>
+  <autoFilter ref="A3:B34" xr:uid="{A05AC082-4586-4442-955C-218DBEF2EE5C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D4C5CF42-A023-47FA-9F0B-9D8F303D66A9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B0E455B8-1976-4E55-84CD-AFC5BA3000D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6C8C1-D6E4-4EE1-8EE5-EC5766B827C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D724B57-BBD5-4648-8DC8-40487B9E2A1A}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2488,7 +2488,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>931</v>
+        <v>7463</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2496,7 +2496,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>930</v>
+        <v>9189</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2504,7 +2504,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>930</v>
+        <v>14032</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2512,7 +2512,7 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>930</v>
+        <v>12362</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2520,7 +2520,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>931</v>
+        <v>13459</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2528,7 +2528,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>931</v>
+        <v>13430</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2536,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>931</v>
+        <v>13958</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2544,7 +2544,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>931</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2552,7 +2552,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>931</v>
+        <v>10179</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2560,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>931</v>
+        <v>12774</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2568,7 +2568,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>931</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2576,7 +2576,7 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>931</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2584,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>931</v>
+        <v>14362</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2592,7 +2592,7 @@
         <v>51</v>
       </c>
       <c r="B17">
-        <v>932</v>
+        <v>17827</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2600,7 +2600,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>933</v>
+        <v>19566</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2608,7 +2608,7 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>933</v>
+        <v>18601</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2616,7 +2616,7 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>934</v>
+        <v>19416</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2624,7 +2624,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>935</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>937</v>
+        <v>20595</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2640,7 +2640,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>938</v>
+        <v>18950</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2648,7 +2648,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>939</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2656,7 +2656,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>939</v>
+        <v>14353</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2664,7 +2664,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>939</v>
+        <v>18869</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2672,7 +2672,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>940</v>
+        <v>17428</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2680,7 +2680,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>940</v>
+        <v>15285</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2688,7 +2688,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>941</v>
+        <v>16056</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2696,7 +2696,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>942</v>
+        <v>17703</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2704,7 +2704,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>943</v>
+        <v>16804</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2712,7 +2712,7 @@
         <v>66</v>
       </c>
       <c r="B32">
-        <v>944</v>
+        <v>23322</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2720,7 +2720,7 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>945</v>
+        <v>19487</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2728,20 +2728,20 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>946</v>
+        <v>18418</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{EA69E48D-B83A-4173-8AC9-68A3A470511C}"/>
+  <autoFilter ref="A3:B34" xr:uid="{998357CE-531C-4BF2-8021-E368C39A8B88}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{71524D93-50BC-4051-B40F-81B4F0C97537}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3ABC0F62-E14A-4189-99C7-4F9B81D9E7D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D093097C-F706-43D0-8E8E-14B1ABE74B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFA6A1F-DC99-40AA-AC9A-ED137459D65F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2792,16 +2792,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{55E32CBE-2D17-4CF5-A573-27DEF42B523C}"/>
+  <autoFilter ref="A3:B5" xr:uid="{1DA648D8-18D9-4136-B2A5-DD7CCEBC7622}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{73FADBDF-0A28-4932-92C5-70796F3E26FE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{ADF3ACC7-DEB8-42A2-8CAD-0265DAC7A822}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C4934-2E19-477D-B9DF-A3713F0252B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79E9576-5EFF-48F1-8323-2FA389702A5C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2849,16 +2849,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{E957EB06-4075-49F4-8436-D7872EFC4737}"/>
+  <autoFilter ref="A3:A5" xr:uid="{E5BEDCDE-1634-4A0A-B470-1D96C7489E3F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{850683B2-8F89-43BA-925F-3271CCBEA766}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{58393105-3E72-4EC2-8F57-A670C4BCE9F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC841BB-0C60-4268-A70A-11DBE8091C14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D064AF-A635-4B49-B6AC-9813DEBB5246}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2906,16 +2906,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{AED5DB77-913A-4E85-A49A-26657E7134AB}"/>
+  <autoFilter ref="A3:A5" xr:uid="{6F5A7DD5-E827-4E15-87E6-B27FF5BF4750}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3B9F4B31-A295-443B-88A2-14E5BBA02618}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{227A3EE1-2D7A-413C-924B-6DDAA799F4A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB7F3EF-659E-4C2A-B161-1C5D8A3DDC24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39306F0D-FF80-4256-B22B-F53A81160D00}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2966,16 +2966,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{215D6CC5-1848-4EE8-A3FA-021E6F016E0F}"/>
+  <autoFilter ref="A3:B5" xr:uid="{0B7B891F-F370-440A-BDA8-0ABAB666C89D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{64B4E928-CCEA-467B-96F3-D373E31A15B6}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{ECAE1F91-E2A2-4A80-965D-855E12AE1724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021D172E-F032-455B-9DFB-8AF491C8AFC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994AF424-6112-472A-B068-E55BA04ED584}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3026,16 +3026,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{98C9D0F3-27F9-4300-90EE-8E7B79908851}"/>
+  <autoFilter ref="A3:B5" xr:uid="{AD6DE8A7-809A-48AA-A099-A4AA00A54447}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{30AE9714-ACAE-4233-ABE3-82A5C9058CC0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FEBF5C79-E90F-451E-AE58-B5274397D635}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4201740-57F4-476F-BA47-08EC216F6EDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3326E6D3-DF61-41D2-844F-AC1ED927A48C}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3162,7 +3162,7 @@
         <v>111</v>
       </c>
       <c r="B12">
-        <v>11872844.135840001</v>
+        <v>12870148.45184</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -3273,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>12716734</v>
+        <v>13631127.736</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -3333,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>11872844.135840001</v>
+        <v>12870148.45184</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -3450,13 +3450,13 @@
         <v>145</v>
       </c>
       <c r="B32">
-        <v>-111910.58000000002</v>
+        <v>-29000</v>
       </c>
       <c r="C32">
-        <v>-111910.58000000002</v>
+        <v>-29000</v>
       </c>
       <c r="D32">
-        <v>-111910.58000000002</v>
+        <v>-29000</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>8950000</v>
       </c>
       <c r="C33">
-        <v>11872844.135840001</v>
+        <v>12870148.45184</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>11872844.135840001</v>
+        <v>12870148.45184</v>
       </c>
       <c r="D34">
         <v>25000000</v>
@@ -3530,13 +3530,13 @@
         <v>152</v>
       </c>
       <c r="B36">
-        <v>12716734</v>
+        <v>13631127.736</v>
       </c>
       <c r="C36">
-        <v>12716734</v>
+        <v>13631127.736</v>
       </c>
       <c r="D36">
-        <v>12716734</v>
+        <v>13631127.736</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2CEBC578-32BA-4AEC-8E92-FF8F0CA87E5D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4E117F54-4365-46D9-AEA6-D55339DAE927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BE2EA5-5E07-4098-9EE8-96B62800C69A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B117905D-D60B-4014-965F-89A4A7FA88FC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3645,16 +3645,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{290F650E-0A64-4A53-8827-3563E985CAC3}"/>
+  <autoFilter ref="A3:B5" xr:uid="{24407225-5875-48CC-88E9-5CA586871EFD}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{859FDA9E-7495-4704-9496-0D44B6C79CE8}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{001594E9-B55B-4BE4-9A1A-8C27532E21AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E2D87-FCB4-413A-832A-AF68727C95E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6387FE49-D936-410C-BF92-5F724B5BAC25}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3732,16 +3732,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{74880C69-0AE4-4EE2-8159-99C97267C50F}"/>
+  <autoFilter ref="A3:E5" xr:uid="{C147B94D-B91A-438A-97C4-65F54E88DC80}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A17AEB5C-3E3B-4EA9-BA70-4B281A2A1F3D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A65688A6-FB28-4682-ABE2-6C449C973DBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1C8FBF-6EBF-41EA-B65D-7D94068E01DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F778366-B55C-47C3-B9B2-BE1EBAA7B289}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3792,16 +3792,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{C0BDA7BC-BB64-4BC7-9B99-1186E734A01B}"/>
+  <autoFilter ref="A3:B5" xr:uid="{6163DD87-C086-4E5F-AE6C-6FD2CF4DFC1F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8434EBFF-0D5F-446A-BA40-8D41CE8E72C7}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0049E6B6-59C8-4D28-AAFB-07FE345D5362}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE326DC-2825-4E1D-AAC9-5953AAE8F4E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E704228-2DD0-4A8C-9332-340DD8CC4269}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3988,16 +3988,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A34" xr:uid="{9D54EE28-BF14-4C09-BE78-B0F49B07DAE6}"/>
+  <autoFilter ref="A3:A34" xr:uid="{3C4F2FE5-7C01-48A7-A9CD-C4B0A20B0557}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{73C26991-1B10-4CCD-B3BE-5BB133F45977}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EC4441FE-09D8-4FFF-8D77-81876BDE994B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2126997E-7E54-49DA-A8E8-130BF3F85A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E0014A-281A-4AE6-9124-76EF2C843F3A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4048,16 +4048,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{FBBD0506-5BD2-4350-8E52-6DD601F8E507}"/>
+  <autoFilter ref="A3:B5" xr:uid="{6AA1DFFB-FF5C-495B-960C-5B03D5996F82}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{35DCE6FD-D954-4B54-84E1-FADFA638359D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7E2DB365-7F43-4657-BF16-58C414C9FFE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04137D3-D6EB-48E7-A204-DE6EE373FB24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AD6665-06F8-48BE-9F28-D412B61E469F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4108,16 +4108,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{77D232FE-CC22-42DB-BF35-B4099D8EDA0F}"/>
+  <autoFilter ref="A3:B5" xr:uid="{29209221-A346-401F-AE17-3767538EF94B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{AB4C35E6-018D-401F-BC8F-C874A0B5AC37}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{90F10CA3-8323-4335-8D1A-3F31A799A5B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7A1F4E-C9F3-412B-8C93-7B644033920E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE58E8F-F59B-47C6-837F-25391C6DDBE8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4195,16 +4195,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{C7F77028-C591-4C4F-832C-2F971CE54473}"/>
+  <autoFilter ref="A3:E5" xr:uid="{13A97143-519F-45A3-A904-FD32B9ECFAF0}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BA1983EA-4C37-464D-A5B2-468FBF7C2D08}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4D40C266-8DDC-4136-AD1F-C592C7345C4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16471A26-8787-40D5-ADA3-F3F749644EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BDF467-082E-48F8-A2B2-4C6D8820DD73}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4282,16 +4282,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{9EB2C556-893F-40B5-A365-D6489315F5F1}"/>
+  <autoFilter ref="A3:E5" xr:uid="{A22D2313-5521-4CF9-985C-354D25A85128}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7806285E-33EC-4CA1-BFDE-95BE9D615711}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D7EFDB38-8411-445E-AA13-6BD3EDF817C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806939F9-5E79-417B-8527-A07CFD5AB7CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130B339D-F56D-4186-B801-A374511699A8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4369,16 +4369,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{2EFCA70B-C111-4063-8A53-D09206CE766E}"/>
+  <autoFilter ref="A3:E5" xr:uid="{4F5C897F-06E3-42C1-8F39-6C80C60058D2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7A4BB23E-FADD-4393-BA1E-3F5231FDFCF9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2BFEC876-29F8-40F7-90E5-39C477FDDF0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6A65AA-EFDA-40DC-B257-515BDF3AFB29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365B0B76-44FC-4182-96D9-49BE138A6D98}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4456,9 +4456,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{C224D230-A893-4876-A289-B97BFFACB141}"/>
+  <autoFilter ref="A3:E5" xr:uid="{FD1AC2F8-417E-4A10-8D1B-FC016EE8194F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7CE815C9-AEC3-499C-8B88-AFC11AEEA38B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4C735306-753B-4410-846E-2F12DC0B1140}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
